--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>56.58555258687051</v>
+        <v>57.52061838152923</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>18.9076808031766</v>
+        <v>19.22012673269603</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>9.592905882341816</v>
+        <v>9.751426878459817</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.161799742709159</v>
+        <v>2.19752308377234</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>87.24793901509808</v>
+        <v>88.68969507645743</v>
       </c>
       <c r="H4" s="6" t="n"/>
     </row>
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>60.65814529131288</v>
+        <v>65.58932169133494</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>22.38030107947755</v>
+        <v>24.1996975014831</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>83.03844637079044</v>
+        <v>89.78901919281805</v>
       </c>
       <c r="H5" s="6" t="n"/>
     </row>
@@ -620,19 +620,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>84.2803218524043</v>
+        <v>87.25642774791008</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.792340401129898</v>
+        <v>3.92625548803871</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1734322155611847</v>
+        <v>0.1795564522496275</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>88.24609446909537</v>
+        <v>91.36223968819841</v>
       </c>
       <c r="H6" s="6" t="n"/>
     </row>
@@ -644,10 +644,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51.14422050834963</v>
+        <v>51.16565745368639</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26.03209991059662</v>
+        <v>26.04301118653822</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>77.17632041894625</v>
+        <v>77.2086686402246</v>
       </c>
       <c r="H7" s="6" t="n"/>
     </row>
@@ -668,10 +668,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>64.92132769383801</v>
+        <v>65.17801657989081</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>9.859606696261606</v>
+        <v>9.898590055808985</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>74.78093439009962</v>
+        <v>75.07660663569979</v>
       </c>
       <c r="H8" s="6" t="n"/>
     </row>
@@ -692,7 +692,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>67.76841988388738</v>
+        <v>67.84331021159129</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>67.76841988388738</v>
+        <v>67.84331021159129</v>
       </c>
       <c r="H9" s="6" t="n"/>
     </row>
@@ -740,19 +740,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74.68704013126771</v>
+        <v>75.31752040271724</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4.070026137661914</v>
+        <v>4.10438378765808</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16.84585373570705</v>
+        <v>16.98806018032475</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95.60292000463667</v>
+        <v>96.40996437070007</v>
       </c>
       <c r="H11" s="6" t="n"/>
     </row>
@@ -764,19 +764,19 @@
         <v>51</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>54.79968119799929</v>
+        <v>55.14700548213446</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>25.7362161232001</v>
+        <v>25.89933409479999</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>14.23233149625338</v>
+        <v>14.32253702738868</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>94.76822881745278</v>
+        <v>95.36887660432313</v>
       </c>
       <c r="H12" s="6" t="n"/>
     </row>
@@ -788,19 +788,19 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>57.19061411302629</v>
+        <v>57.74506892934679</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>34.5677924154457</v>
+        <v>34.90292221412967</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>5.786171107240583</v>
+        <v>5.842267207767212</v>
       </c>
       <c r="F13" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>97.54457763571257</v>
+        <v>98.49025835124365</v>
       </c>
       <c r="H13" s="6" t="n"/>
     </row>
@@ -812,10 +812,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40.42154483113999</v>
+        <v>41.01995020740805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34.08805851342223</v>
+        <v>34.59270220198451</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>74.50960334456222</v>
+        <v>75.61265240939255</v>
       </c>
       <c r="H14" s="6" t="n"/>
     </row>
@@ -836,19 +836,19 @@
         <v>67</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90.27188848079236</v>
+        <v>90.3415940791476</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.125263173714421</v>
+        <v>8.131537290062814</v>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.05799289600955415</v>
+        <v>0.05803767661163007</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>98.45514455051632</v>
+        <v>98.53116904582204</v>
       </c>
       <c r="H15" s="6" t="n"/>
     </row>
@@ -860,19 +860,19 @@
         <v>71</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>22.36961898888374</v>
+        <v>22.44061882442062</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>18.90537203827852</v>
+        <v>18.96537656075824</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>43.38400882935861</v>
+        <v>43.52170708400237</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>13.02779766399985</v>
+        <v>13.06914711621946</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>97.68679752052071</v>
+        <v>97.9968495854007</v>
       </c>
       <c r="H16" s="6" t="n"/>
     </row>
@@ -884,19 +884,19 @@
         <v>77</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>77.01567426432891</v>
+        <v>77.33419494499688</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>9.94679282042209</v>
+        <v>9.987930669955814</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.2400047455853593</v>
+        <v>0.2409973548906421</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>87.20247183033635</v>
+        <v>87.56312296984333</v>
       </c>
       <c r="H17" s="6" t="n"/>
     </row>
@@ -908,19 +908,19 @@
         <v>81</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50.98006017083636</v>
+        <v>51.10689617291428</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7.974680932856335</v>
+        <v>7.994521565526852</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29.67956797117075</v>
+        <v>29.75340934625442</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>88.63430907486345</v>
+        <v>88.85482708469556</v>
       </c>
       <c r="H18" s="6" t="n"/>
     </row>
@@ -932,19 +932,19 @@
         <v>87</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86.07841336687608</v>
+        <v>89.90419057147957</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5.870343970356078</v>
+        <v>6.131252916821536</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6876134425664012</v>
+        <v>0.7181745987407989</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>92.63637077979855</v>
+        <v>96.75361808704191</v>
       </c>
       <c r="H19" s="6" t="n"/>
     </row>
@@ -958,19 +958,19 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>2.165702501553378</v>
+        <v>2.165731403163537</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2.25371289172947</v>
+        <v>2.253742967850895</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>95.15568453619572</v>
+        <v>95.15695440243861</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>99.57509992947857</v>
+        <v>99.57642877345305</v>
       </c>
       <c r="H20" s="6" t="n"/>
     </row>
@@ -989,7 +989,7 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
 from where they were reported.</t>
         </is>
       </c>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -989,8 +989,9 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
-from where they were reported.</t>
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>57.52061838152923</v>
+        <v>57.49300344185662</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>19.22012673269603</v>
@@ -584,7 +584,7 @@
         <v>2.19752308377234</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>88.68969507645743</v>
+        <v>88.66208013678481</v>
       </c>
       <c r="H4" s="6" t="n"/>
     </row>
@@ -596,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>65.58932169133494</v>
+        <v>65.42632840271456</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>24.1996975014831</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>89.78901919281805</v>
+        <v>89.62602590419766</v>
       </c>
       <c r="H5" s="6" t="n"/>
     </row>
@@ -668,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>65.17801657989081</v>
+        <v>65.47666476161476</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>9.898590055808985</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>75.07660663569979</v>
+        <v>75.37525481742374</v>
       </c>
       <c r="H8" s="6" t="n"/>
     </row>
@@ -716,7 +716,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>77.8261860904077</v>
+        <v>77.23983247644179</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>6.152567080972816</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>83.97875317138052</v>
+        <v>83.39239955741461</v>
       </c>
       <c r="H10" s="6" t="n"/>
     </row>
@@ -740,7 +740,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75.31752040271724</v>
+        <v>74.33525725976908</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>4.10438378765808</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>96.40996437070007</v>
+        <v>95.42770122775191</v>
       </c>
       <c r="H11" s="6" t="n"/>
     </row>
@@ -812,7 +812,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41.01995020740805</v>
+        <v>40.96649485023759</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>34.59270220198451</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75.61265240939255</v>
+        <v>75.55919705222209</v>
       </c>
       <c r="H14" s="6" t="n"/>
     </row>
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>77.33419494499688</v>
+        <v>77.52439598029291</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>9.987930669955814</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>87.56312296984333</v>
+        <v>87.75332400513936</v>
       </c>
       <c r="H17" s="6" t="n"/>
     </row>
@@ -908,7 +908,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51.10689617291428</v>
+        <v>50.50652239296084</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>7.994521565526852</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>88.85482708469556</v>
+        <v>88.25445330474211</v>
       </c>
       <c r="H18" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>57.49300344185662</v>
+        <v>57.49218737885558</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>19.22012673269603</v>
+        <v>19.21686350833784</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>9.751426878459817</v>
+        <v>9.751189517155115</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>2.19752308377234</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>88.66208013678481</v>
+        <v>88.65776348812088</v>
       </c>
       <c r="H4" s="6" t="n"/>
     </row>
@@ -740,7 +740,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74.33525725976908</v>
+        <v>74.29039347307072</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>4.10438378765808</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95.42770122775191</v>
+        <v>95.38283744105355</v>
       </c>
       <c r="H11" s="6" t="n"/>
     </row>
@@ -767,7 +767,7 @@
         <v>55.14700548213446</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>25.89933409479999</v>
+        <v>25.89026358993192</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>14.32253702738868</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>95.36887660432313</v>
+        <v>95.35980609945506</v>
       </c>
       <c r="H12" s="6" t="n"/>
     </row>
@@ -791,7 +791,7 @@
         <v>57.74506892934679</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>34.90292221412967</v>
+        <v>34.8998241561326</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>5.842267207767212</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>98.49025835124365</v>
+        <v>98.48716029324659</v>
       </c>
       <c r="H13" s="6" t="n"/>
     </row>
@@ -866,13 +866,13 @@
         <v>18.96537656075824</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>43.52170708400237</v>
+        <v>43.52029544476464</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>13.06914711621946</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>97.9968495854007</v>
+        <v>97.99543794616298</v>
       </c>
       <c r="H16" s="6" t="n"/>
     </row>
@@ -887,7 +887,7 @@
         <v>77.52439598029291</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>9.987930669955814</v>
+        <v>9.888871821812476</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>0.2409973548906421</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>87.75332400513936</v>
+        <v>87.65426515699602</v>
       </c>
       <c r="H17" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>57.49218737885558</v>
+        <v>57.55885974037317</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>19.21686350833784</v>
+        <v>19.25471565207577</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>9.751189517155115</v>
+        <v>9.751210713283157</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.19752308377234</v>
+        <v>2.197522793618164</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>88.65776348812088</v>
+        <v>88.76230889935026</v>
       </c>
       <c r="H4" s="6" t="n"/>
     </row>
@@ -596,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>65.42632840271456</v>
+        <v>66.68103388197095</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>24.1996975014831</v>
+        <v>25.63139893131246</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>89.62602590419766</v>
+        <v>92.31243281328341</v>
       </c>
       <c r="H5" s="6" t="n"/>
     </row>
@@ -620,19 +620,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87.25642774791008</v>
+        <v>87.2563188009497</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.92625548803871</v>
+        <v>3.926244939905627</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1795564522496275</v>
+        <v>0.1795562169405285</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>91.36223968819841</v>
+        <v>91.36211995779585</v>
       </c>
       <c r="H6" s="6" t="n"/>
     </row>
@@ -668,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>65.47666476161476</v>
+        <v>65.47666476161474</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>9.898590055808985</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>75.37525481742374</v>
+        <v>75.37525481742372</v>
       </c>
       <c r="H8" s="6" t="n"/>
     </row>
@@ -740,19 +740,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74.29039347307072</v>
+        <v>74.24552968637236</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>4.10438378765808</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16.98806018032475</v>
+        <v>16.98929623880066</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95.38283744105355</v>
+        <v>95.33920971283111</v>
       </c>
       <c r="H11" s="6" t="n"/>
     </row>
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>55.14700548213446</v>
+        <v>55.13793497726639</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>25.89026358993192</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>95.35980609945506</v>
+        <v>95.35073559458699</v>
       </c>
       <c r="H12" s="6" t="n"/>
     </row>
@@ -788,7 +788,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>57.74506892934679</v>
+        <v>57.74197087134971</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>34.8998241561326</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>98.48716029324659</v>
+        <v>98.48406223524952</v>
       </c>
       <c r="H13" s="6" t="n"/>
     </row>
@@ -815,7 +815,7 @@
         <v>40.96649485023759</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34.59270220198451</v>
+        <v>34.63020293295953</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75.55919705222209</v>
+        <v>75.59669778319711</v>
       </c>
       <c r="H14" s="6" t="n"/>
     </row>
@@ -860,7 +860,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>22.44061882442062</v>
+        <v>22.71058217014532</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>18.96537656075824</v>
@@ -872,7 +872,7 @@
         <v>13.06914711621946</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>97.99543794616298</v>
+        <v>98.26540129188766</v>
       </c>
       <c r="H16" s="6" t="n"/>
     </row>
@@ -884,7 +884,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>77.52439598029291</v>
+        <v>77.42533713214959</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>9.888871821812476</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>87.65426515699602</v>
+        <v>87.5552063088527</v>
       </c>
       <c r="H17" s="6" t="n"/>
     </row>
@@ -989,8 +989,8 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
-Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,8 +515,7 @@
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -542,15 +541,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>No Tier</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n"/>
@@ -560,7 +554,6 @@
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
@@ -572,21 +565,18 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>57.55885974037317</v>
+        <v>58.09716540959801</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>19.25471565207577</v>
+        <v>19.15231831495115</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>9.751210713283157</v>
+        <v>9.292878676627332</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.197522793618164</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>88.76230889935026</v>
-      </c>
-      <c r="H4" s="6" t="n"/>
+        <v>86.54236240117649</v>
+      </c>
+      <c r="G4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
@@ -596,21 +586,18 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>66.68103388197095</v>
+        <v>67.60332638088887</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>25.63139893131246</v>
+        <v>25.85889178098413</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>92.31243281328341</v>
-      </c>
-      <c r="H5" s="6" t="n"/>
+      <c r="F5" s="6" t="n">
+        <v>93.46221816187301</v>
+      </c>
+      <c r="G5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
@@ -623,18 +610,15 @@
         <v>87.2563188009497</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.926244939905627</v>
+        <v>3.925872610450226</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0.1795562169405285</v>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>91.36211995779585</v>
-      </c>
-      <c r="H6" s="6" t="n"/>
+      <c r="F6" s="6" t="n">
+        <v>91.36174762834045</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
@@ -652,13 +636,10 @@
       <c r="E7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="F7" s="6" t="n">
         <v>77.2086686402246</v>
       </c>
-      <c r="H7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
@@ -676,13 +657,10 @@
       <c r="E8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="n">
+      <c r="F8" s="6" t="n">
         <v>75.37525481742372</v>
       </c>
-      <c r="H8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
@@ -700,13 +678,10 @@
       <c r="E9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="6" t="n">
         <v>67.84331021159129</v>
       </c>
-      <c r="H9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
@@ -724,13 +699,10 @@
       <c r="E10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="n">
+      <c r="F10" s="6" t="n">
         <v>83.39239955741461</v>
       </c>
-      <c r="H10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
@@ -740,21 +712,18 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74.24552968637236</v>
+        <v>74.24277900333595</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4.10438378765808</v>
+        <v>4.108509812212687</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16.98929623880066</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>95.33920971283111</v>
-      </c>
-      <c r="H11" s="6" t="n"/>
+        <v>16.98792089728245</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>95.33920971283109</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
@@ -772,13 +741,10 @@
       <c r="E12" s="6" t="n">
         <v>14.32253702738868</v>
       </c>
-      <c r="F12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="n">
+      <c r="F12" s="6" t="n">
         <v>95.35073559458699</v>
       </c>
-      <c r="H12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
@@ -796,13 +762,10 @@
       <c r="E13" s="6" t="n">
         <v>5.842267207767212</v>
       </c>
-      <c r="F13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="n">
+      <c r="F13" s="6" t="n">
         <v>98.48406223524952</v>
       </c>
-      <c r="H13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
@@ -812,21 +775,18 @@
         <v>61</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40.96649485023759</v>
+        <v>41.38736255831748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34.63020293295953</v>
+        <v>34.20933522487963</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="n">
+      <c r="F14" s="6" t="n">
         <v>75.59669778319711</v>
       </c>
-      <c r="H14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
@@ -844,13 +804,10 @@
       <c r="E15" s="9" t="n">
         <v>0.05803767661163007</v>
       </c>
-      <c r="F15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="n">
+      <c r="F15" s="6" t="n">
         <v>98.53116904582204</v>
       </c>
-      <c r="H15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
@@ -860,7 +817,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>22.71058217014532</v>
+        <v>22.4392071851829</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>18.96537656075824</v>
@@ -869,12 +826,9 @@
         <v>43.52029544476464</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>13.06914711621946</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>98.26540129188766</v>
-      </c>
-      <c r="H16" s="6" t="n"/>
+        <v>84.92487919070578</v>
+      </c>
+      <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
@@ -892,13 +846,10 @@
       <c r="E17" s="6" t="n">
         <v>0.2409973548906421</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="n">
+      <c r="F17" s="6" t="n">
         <v>87.5552063088527</v>
       </c>
-      <c r="H17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
@@ -916,13 +867,10 @@
       <c r="E18" s="6" t="n">
         <v>29.75340934625442</v>
       </c>
-      <c r="F18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="n">
+      <c r="F18" s="6" t="n">
         <v>88.25445330474211</v>
       </c>
-      <c r="H18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
@@ -940,13 +888,10 @@
       <c r="E19" s="6" t="n">
         <v>0.7181745987407989</v>
       </c>
-      <c r="F19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="n">
+      <c r="F19" s="6" t="n">
         <v>96.75361808704191</v>
       </c>
-      <c r="H19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
@@ -958,21 +903,18 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>2.165731403163537</v>
+        <v>98.78030563067803</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2.253742967850895</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>95.15695440243861</v>
-      </c>
-      <c r="F20" s="8" t="n">
+        <v>0.7961231427750326</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="n">
-        <v>99.57642877345305</v>
-      </c>
-      <c r="H20" s="6" t="n"/>
+      <c r="F20" s="6" t="n">
+        <v>99.57642877345306</v>
+      </c>
+      <c r="G20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -985,8 +927,7 @@
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
       <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
 Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
@@ -997,8 +938,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -930,7 +930,7 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
 Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -489,16 +489,16 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67.62196265174633</v>
+        <v>67.4029228240193</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>25.97469960875567</v>
+        <v>26.19509653104194</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>93.596662260502</v>
+        <v>93.59801935506124</v>
       </c>
     </row>
     <row r="3">
@@ -569,7 +569,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>67.06709270037017</v>
+        <v>66.73111244338112</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>67.06709270037017</v>
+        <v>66.73111244338112</v>
       </c>
     </row>
     <row r="7">
@@ -749,13 +749,13 @@
         <v>81</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>49.6687541112527</v>
+        <v>49.64353100714197</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8.494260080126164</v>
+        <v>8.50701327506011</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>31.61329858028672</v>
+        <v>31.62576848946351</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>89.77631277166559</v>
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>58.51085305532513</v>
+        <v>58.50168961137493</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>18.75679236172879</v>
+        <v>18.76128610807104</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>9.274796369915176</v>
+        <v>9.274853082697149</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>86.54244178696911</v>
+        <v>86.53782880214312</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,16 +489,16 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67.4029228240193</v>
+        <v>67.38526313910995</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>26.19509653104194</v>
+        <v>26.07830606673554</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>93.59801935506124</v>
+        <v>93.46356920584549</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>91.30191835637562</v>
+        <v>91.36174762834041</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>91.30191835637562</v>
+        <v>91.36174762834041</v>
       </c>
     </row>
     <row r="4">
@@ -529,16 +529,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>49.05403942253007</v>
+        <v>51.16565745368639</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>27.1749258805856</v>
+        <v>26.04301118653822</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>76.22896530311567</v>
+        <v>77.2086686402246</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>63.13814454696077</v>
+        <v>65.47666476161476</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>10.57038773068931</v>
+        <v>9.898590055808985</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>73.70853227765008</v>
+        <v>75.37525481742374</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +569,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>66.73111244338112</v>
+        <v>67.51533733114508</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>66.73111244338112</v>
+        <v>67.51533733114508</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +589,16 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>77.35965331338684</v>
+        <v>77.23983247644179</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6.282104255594598</v>
+        <v>6.152567080972816</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>83.64175756898145</v>
+        <v>83.39239955741461</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
         <v>47</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>73.48659240094304</v>
+        <v>74.24277900333595</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>4.221774953090618</v>
+        <v>4.108509812212687</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>17.4562511049734</v>
+        <v>16.98792089728245</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>95.16461845900704</v>
+        <v>95.33920971283109</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>51</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>46.29155703587367</v>
+        <v>55.14700548213443</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>30.99128021613356</v>
+        <v>25.89026358993191</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>17.14442793832205</v>
+        <v>14.32253702738867</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>94.42726519032928</v>
+        <v>95.359806099455</v>
       </c>
     </row>
     <row r="10">
@@ -649,16 +649,16 @@
         <v>57</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>55.32660624911228</v>
+        <v>57.7444693106978</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>36.89191159547433</v>
+        <v>34.8998241561326</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>6.175744736760037</v>
+        <v>5.842267207767213</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>98.39426258134665</v>
+        <v>98.4865606745976</v>
       </c>
     </row>
     <row r="11">
@@ -669,16 +669,16 @@
         <v>61</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>41.58084991522043</v>
+        <v>41.38736255831748</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>34.55412097608363</v>
+        <v>34.20933522487963</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>76.13497089130406</v>
+        <v>75.59669778319711</v>
       </c>
     </row>
     <row r="12">
@@ -689,16 +689,16 @@
         <v>67</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>92.37898070263611</v>
+        <v>90.3415940791476</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>5.868496751925289</v>
+        <v>8.131537290062814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06288280328540714</v>
+        <v>0.05803767661163007</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>98.31036025784681</v>
+        <v>98.53116904582204</v>
       </c>
     </row>
     <row r="13">
@@ -709,16 +709,16 @@
         <v>71</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>5.894840654058238</v>
+        <v>22.44053733597049</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>23.10427842437966</v>
+        <v>18.96537656075825</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>53.01793085129777</v>
+        <v>43.52029544476464</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>82.01704992973566</v>
+        <v>84.92620934149338</v>
       </c>
     </row>
     <row r="14">
@@ -729,16 +729,16 @@
         <v>77</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>72.89808133101303</v>
+        <v>77.52439598029292</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>12.53579779344679</v>
+        <v>9.888871821812476</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.3055044259953715</v>
+        <v>0.240997354890642</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>85.73938355045519</v>
+        <v>87.65426515699603</v>
       </c>
     </row>
     <row r="15">
@@ -749,16 +749,16 @@
         <v>81</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>49.64353100714197</v>
+        <v>50.49236815913103</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8.50701327506011</v>
+        <v>8.008044619881694</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>31.62576848946351</v>
+        <v>29.7707969898381</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>89.77631277166559</v>
+        <v>88.27120976885082</v>
       </c>
     </row>
     <row r="16">
@@ -769,16 +769,16 @@
         <v>87</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>89.42081793682796</v>
+        <v>89.90419057147956</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>6.43160392316254</v>
+        <v>6.131252916821535</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.7533557381239983</v>
+        <v>0.7181745987407989</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>96.6057775981145</v>
+        <v>96.7536180870419</v>
       </c>
     </row>
     <row r="17">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>98.78031584957313</v>
+        <v>98.78030563067804</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.7961232251345557</v>
+        <v>0.7961231427750325</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>99.57643907470768</v>
+        <v>99.57642877345307</v>
       </c>
     </row>
     <row r="18">
@@ -809,86 +809,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>76.42982437367372</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>23.54395995920599</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.0262156671202854</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>63.87449876656093</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>63.87449876656093</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>96.03160936053438</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>96.03160936053438</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>58.50168961137493</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>18.76128610807104</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>9.274853082697149</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>86.53782880214312</v>
+      <c r="C18" s="4" t="n">
+        <v>58.5051325270044</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>18.76128610807105</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>9.274853082697151</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>86.54127171777259</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -549,16 +549,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>65.47666476161476</v>
+        <v>65.70910163280114</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>9.898590055808985</v>
+        <v>9.666153184622592</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>75.37525481742374</v>
+        <v>75.37525481742372</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +589,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>77.23983247644179</v>
+        <v>77.23983247644178</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>6.152567080972816</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>83.39239955741461</v>
+        <v>83.39239955741459</v>
       </c>
     </row>
     <row r="8">
@@ -629,16 +629,16 @@
         <v>51</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>55.14700548213443</v>
+        <v>55.13793497726638</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>25.89026358993191</v>
+        <v>25.88910897962809</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>14.32253702738867</v>
+        <v>14.32369163769251</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>95.359806099455</v>
+        <v>95.35073559458699</v>
       </c>
     </row>
     <row r="10">
@@ -649,7 +649,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>57.7444693106978</v>
+        <v>57.74197087134971</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>34.8998241561326</v>
@@ -658,7 +658,7 @@
         <v>5.842267207767213</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>98.4865606745976</v>
+        <v>98.48406223524952</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
         <v>90.3415940791476</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>8.131537290062814</v>
+        <v>8.131537290062813</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.05803767661163007</v>
@@ -709,7 +709,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>22.44053733597049</v>
+        <v>22.43920718518289</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>18.96537656075825</v>
@@ -718,7 +718,7 @@
         <v>43.52029544476464</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>84.92620934149338</v>
+        <v>84.92487919070578</v>
       </c>
     </row>
     <row r="14">
@@ -729,7 +729,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>77.52439598029292</v>
+        <v>77.42533713214959</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>9.888871821812476</v>
@@ -738,7 +738,7 @@
         <v>0.240997354890642</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>87.65426515699603</v>
+        <v>87.5552063088527</v>
       </c>
     </row>
     <row r="15">
@@ -749,16 +749,16 @@
         <v>81</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>50.49236815913103</v>
+        <v>50.49236815913104</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8.008044619881694</v>
+        <v>8.008044619881698</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>29.7707969898381</v>
+        <v>29.77079698983811</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>88.27120976885082</v>
+        <v>88.27120976885084</v>
       </c>
     </row>
     <row r="16">
@@ -769,7 +769,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>89.90419057147956</v>
+        <v>89.90419057147959</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>6.131252916821535</v>
@@ -778,7 +778,7 @@
         <v>0.7181745987407989</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>96.7536180870419</v>
+        <v>96.75361808704193</v>
       </c>
     </row>
     <row r="17">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>58.5051325270044</v>
+        <v>58.51664863459677</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>18.76128610807105</v>
+        <v>18.74624824005215</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>9.274853082697151</v>
+        <v>9.274931927494199</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>86.54127171777259</v>
+        <v>86.53782880214311</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -489,7 +489,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67.38526313910995</v>
+        <v>67.38526313910994</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>26.07830606673554</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>93.46356920584549</v>
+        <v>93.46356920584547</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>91.36174762834041</v>
+        <v>91.36174738107587</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>91.36174762834041</v>
+        <v>91.36174738107587</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>51.16565745368639</v>
+        <v>51.16528986396693</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>26.04301118653822</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>77.2086686402246</v>
+        <v>77.20830105050516</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +549,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>65.70910163280114</v>
+        <v>65.70908750369924</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>9.666153184622592</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>75.37525481742372</v>
+        <v>75.37524068832182</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +569,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>67.51533733114508</v>
+        <v>67.50864890236018</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>67.51533733114508</v>
+        <v>67.50864890236018</v>
       </c>
     </row>
     <row r="7">
@@ -589,7 +589,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>77.23983247644178</v>
+        <v>77.23982949709857</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>6.152567080972816</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>83.39239955741459</v>
+        <v>83.39239657807138</v>
       </c>
     </row>
     <row r="8">
@@ -609,7 +609,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>74.24277900333595</v>
+        <v>74.24277352496043</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>4.108509812212687</v>
@@ -618,7 +618,7 @@
         <v>16.98792089728245</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>95.33920971283109</v>
+        <v>95.33920423445556</v>
       </c>
     </row>
     <row r="9">
@@ -629,7 +629,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>55.13793497726638</v>
+        <v>55.13782589516744</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>25.88910897962809</v>
@@ -638,7 +638,7 @@
         <v>14.32369163769251</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>95.35073559458699</v>
+        <v>95.35062651248805</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>22.43920718518289</v>
+        <v>22.43912569673276</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>18.96537656075825</v>
@@ -718,7 +718,7 @@
         <v>43.52029544476464</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>84.92487919070578</v>
+        <v>84.92479770225566</v>
       </c>
     </row>
     <row r="14">
@@ -729,16 +729,16 @@
         <v>77</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>77.42533713214959</v>
+        <v>77.36710640156794</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>9.888871821812476</v>
+        <v>9.898496143085804</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0.240997354890642</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>87.5552063088527</v>
+        <v>87.50659989954438</v>
       </c>
     </row>
     <row r="15">
@@ -769,7 +769,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>89.90419057147959</v>
+        <v>89.86433117884974</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>6.131252916821535</v>
@@ -778,7 +778,7 @@
         <v>0.7181745987407989</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>96.75361808704193</v>
+        <v>96.71375869441208</v>
       </c>
     </row>
     <row r="17">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>58.51664863459677</v>
+        <v>58.51012182575013</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>18.74624824005215</v>
+        <v>18.7464830355404</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>9.274931927494199</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>86.53782880214311</v>
+        <v>86.53153678878472</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -70,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -80,7 +78,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +454,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>FAO Area</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -489,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67.38526313910994</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>26.07830606673554</v>
+        <v>89.92981817503268</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>93.46356920584547</v>
+        <v>89.92981817503268</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +506,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>91.36174738107587</v>
+        <v>91.29696205583609</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -518,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>91.36174738107587</v>
+        <v>91.29696205583609</v>
       </c>
     </row>
     <row r="4">
@@ -529,16 +526,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>51.16528986396693</v>
+        <v>49.90673982909019</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>26.04301118653822</v>
+        <v>18.35247500598378</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>77.20830105050516</v>
+        <v>68.25921483507398</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +546,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>65.70908750369924</v>
+        <v>65.02949118995608</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>9.666153184622592</v>
+        <v>5.849958499757208</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>75.37524068832182</v>
+        <v>70.87944968971328</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +566,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>67.50864890236018</v>
+        <v>73.2435432825289</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -578,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>67.50864890236018</v>
+        <v>73.2435432825289</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +586,16 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>77.23982949709857</v>
+        <v>76.34052307941519</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6.152567080972816</v>
+        <v>6.018522566839045</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>83.39239657807138</v>
+        <v>82.35904564625423</v>
       </c>
     </row>
     <row r="8">
@@ -609,36 +606,38 @@
         <v>47</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>74.24277352496043</v>
+        <v>74.05847776152132</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>4.108509812212687</v>
+        <v>2.697938392044119</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>16.98792089728245</v>
+        <v>16.8957730155629</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>95.33920423445556</v>
+        <v>93.65218916912833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>51</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>48,58,88</t>
+        </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>55.13782589516744</v>
+        <v>99.11825454967195</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>25.88910897962809</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>14.32369163769251</v>
+        <v>0.4581742237811156</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>95.35062651248805</v>
+        <v>99.57642877345306</v>
       </c>
     </row>
     <row r="10">
@@ -646,19 +645,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>57.74197087134971</v>
+        <v>49.79442206915059</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>34.8998241561326</v>
+        <v>23.72468991561669</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5.842267207767213</v>
+        <v>21.84751082001184</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>98.48406223524952</v>
+        <v>95.36662280477913</v>
       </c>
     </row>
     <row r="11">
@@ -666,19 +665,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>41.38736255831748</v>
+        <v>37.91693402296551</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>34.20933522487963</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+        <v>30.80305456407265</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.605520360050221</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>75.59669778319711</v>
+        <v>71.32550894708838</v>
       </c>
     </row>
     <row r="12">
@@ -686,19 +685,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>90.3415940791476</v>
+        <v>27.8972551768033</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>8.131537290062813</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0.05803767661163007</v>
+        <v>47.75289796356428</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>98.53116904582204</v>
+        <v>75.65015314036758</v>
       </c>
     </row>
     <row r="13">
@@ -706,19 +705,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>22.43912569673276</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>18.96537656075825</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>43.52029544476464</v>
+        <v>96.89383326838319</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>84.92479770225566</v>
+        <v>96.89383326838319</v>
       </c>
     </row>
     <row r="14">
@@ -726,19 +725,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>77.36710640156794</v>
+        <v>22.47533949733339</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>9.898496143085804</v>
+        <v>13.04002592408088</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.240997354890642</v>
+        <v>23.64536264357362</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>87.50659989954438</v>
+        <v>59.16072806498789</v>
       </c>
     </row>
     <row r="15">
@@ -746,19 +745,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>50.49236815913104</v>
+        <v>76.51244200231125</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8.008044619881698</v>
+        <v>9.292055061432121</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>29.77079698983811</v>
+        <v>0.240997354890642</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>88.27120976885084</v>
+        <v>86.04549441863401</v>
       </c>
     </row>
     <row r="16">
@@ -766,41 +765,39 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>89.86433117884974</v>
+        <v>50.38567185987153</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>6.131252916821535</v>
+        <v>7.830153831134185</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.7181745987407989</v>
+        <v>29.51426778374728</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>96.71375869441208</v>
+        <v>87.73009347475299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
+      <c r="B17" s="3" t="n">
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>98.78030563067804</v>
+        <v>89.50437523539404</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.7961231427750325</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
+        <v>6.955422760403371</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.4429141713923189</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>99.57642877345307</v>
+        <v>96.90271216718972</v>
       </c>
     </row>
     <row r="18">
@@ -813,16 +810,16 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>58.51012182575013</v>
+        <v>54.10742661184443</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>18.7464830355404</v>
+        <v>19.39785976064486</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>9.274931927494199</v>
+        <v>6.169845039607857</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>86.53153678878472</v>
+        <v>79.67513141209716</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -486,7 +486,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>89.92981817503268</v>
+        <v>89.96570793714966</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>89.92981817503268</v>
+        <v>89.96570793714966</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>91.29696205583609</v>
+        <v>91.29809121646153</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>91.29696205583609</v>
+        <v>91.29809121646153</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +526,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>49.90673982909019</v>
+        <v>50.54105036730311</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>18.35247500598378</v>
+        <v>21.44866015372057</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>68.25921483507398</v>
+        <v>71.98971052102368</v>
       </c>
     </row>
     <row r="5">
@@ -546,16 +546,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>65.02949118995608</v>
+        <v>64.74433995838469</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5.849958499757208</v>
+        <v>6.850496433120231</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>70.87944968971328</v>
+        <v>71.59483639150491</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>73.2435432825289</v>
+        <v>74.07324183489621</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>73.2435432825289</v>
+        <v>74.07324183489621</v>
       </c>
     </row>
     <row r="7">
@@ -586,16 +586,16 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>76.34052307941519</v>
+        <v>78.89073275578369</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6.018522566839045</v>
+        <v>6.443240446126456</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>82.35904564625423</v>
+        <v>85.33397320191014</v>
       </c>
     </row>
     <row r="8">
@@ -606,16 +606,16 @@
         <v>47</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>74.05847776152132</v>
+        <v>74.0946971736043</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>2.697938392044119</v>
+        <v>2.811380672192315</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>16.8957730155629</v>
+        <v>16.90698941100342</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>93.65218916912833</v>
+        <v>93.81306725680003</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
         <v>51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>49.79442206915059</v>
+        <v>47.18186516026774</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>23.72468991561669</v>
+        <v>22.32130452058757</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>21.84751082001184</v>
+        <v>10.29916343614111</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>95.36662280477913</v>
+        <v>79.80233311699642</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>37.91693402296551</v>
+        <v>36.8703355359274</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>30.80305456407265</v>
+        <v>28.2407751723297</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>2.605520360050221</v>
+        <v>2.503255920307746</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>71.32550894708838</v>
+        <v>67.61436662856485</v>
       </c>
     </row>
     <row r="12">
@@ -688,16 +688,16 @@
         <v>61</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>27.8972551768033</v>
+        <v>29.94789625357208</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>47.75289796356428</v>
+        <v>33.45586478715154</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>75.65015314036758</v>
+        <v>63.40376104072362</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +708,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>96.89383326838319</v>
+        <v>96.75109288056788</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>96.89383326838319</v>
+        <v>96.75109288056788</v>
       </c>
     </row>
     <row r="14">
@@ -728,16 +728,16 @@
         <v>71</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>22.47533949733339</v>
+        <v>20.39491647779554</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>13.04002592408088</v>
+        <v>12.89991452356453</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>23.64536264357362</v>
+        <v>17.99890180729195</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>59.16072806498789</v>
+        <v>51.29373280865202</v>
       </c>
     </row>
     <row r="15">
@@ -748,16 +748,16 @@
         <v>77</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>76.51244200231125</v>
+        <v>76.64254041777447</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>9.292055061432121</v>
+        <v>9.684193581113677</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0.240997354890642</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>86.04549441863401</v>
+        <v>86.56773135377878</v>
       </c>
     </row>
     <row r="16">
@@ -768,16 +768,16 @@
         <v>81</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>50.38567185987153</v>
+        <v>50.67548097774761</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>7.830153831134185</v>
+        <v>0.425641014021838</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>29.51426778374728</v>
+        <v>30.27658596710187</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>87.73009347475299</v>
+        <v>81.37770795887131</v>
       </c>
     </row>
     <row r="17">
@@ -788,16 +788,16 @@
         <v>87</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>89.50437523539404</v>
+        <v>89.57393542289003</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>6.955422760403371</v>
+        <v>5.951274945093683</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.4429141713923189</v>
+        <v>0.4437198906241213</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>96.90271216718972</v>
+        <v>95.96893025860784</v>
       </c>
     </row>
     <row r="18">
@@ -810,16 +810,16 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>54.10742661184443</v>
+        <v>54.06592465763968</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>19.39785976064486</v>
+        <v>15.66318926395918</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>6.169845039607857</v>
+        <v>4.428414944739468</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>79.67513141209716</v>
+        <v>74.15752886633834</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_tiers.xlsx
+++ b/output/aggregate_tables/percent_coverage_tiers.xlsx
@@ -526,16 +526,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>50.54105036730311</v>
+        <v>50.53930128601329</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>21.44866015372057</v>
+        <v>21.5255761332612</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>71.98971052102368</v>
+        <v>72.0648774192745</v>
       </c>
     </row>
     <row r="5">
@@ -586,16 +586,16 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>78.89073275578369</v>
+        <v>78.88959458750571</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6.443240446126456</v>
+        <v>6.470405379744299</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>85.33397320191014</v>
+        <v>85.35999996725</v>
       </c>
     </row>
     <row r="8">
@@ -810,16 +810,16 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>54.06592465763968</v>
+        <v>54.06587079725819</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>15.66318926395918</v>
+        <v>15.6649836651951</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>4.428414944739468</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>74.15752886633834</v>
+        <v>74.15926940719277</v>
       </c>
     </row>
   </sheetData>
